--- a/HowTo.xlsx
+++ b/HowTo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cliff\OneDrive\Documents\GenAtomic\Optimize\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7cd0e7a053322a97/Documents/GenAtomic/Optimize/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED16E51-27CA-4E7A-9893-06E986334EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{5ED16E51-27CA-4E7A-9893-06E986334EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0D1A43B-2D04-439C-B24C-62F76827CFC9}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="16637" windowHeight="9437" xr2:uid="{D1AEF0B0-29D5-4C22-9FE1-30CC505B8A1D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>Step 1:</t>
   </si>
@@ -57,47 +57,12 @@
     <t>Step 7:</t>
   </si>
   <si>
-    <t>Browse Button -&gt; Browse to CCL_Share folder -&gt; OK</t>
-  </si>
-  <si>
     <t>OK -&gt; OK -&gt; OK</t>
   </si>
   <si>
-    <t>CCL_Share</t>
-  </si>
-  <si>
     <t>HowTo.xlsx</t>
   </si>
   <si>
-    <r>
-      <t>Right-Click on CCL_Share in the Target directory (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Not download directory</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Delete old compressed file in Target directory.</t>
-  </si>
-  <si>
     <t>Phase 1:</t>
   </si>
   <si>
@@ -108,6 +73,45 @@
   </si>
   <si>
     <t>This File Link:</t>
+  </si>
+  <si>
+    <t>This only has to be completed once.</t>
+  </si>
+  <si>
+    <t>File -&gt; More -&gt; Options -&gt; Trust Center (Left-bottom) -&gt; Trust Center Setting button (Right)</t>
+  </si>
+  <si>
+    <t>Trusted Locations (Left) -&gt; Add New Location… Button (Right)</t>
+  </si>
+  <si>
+    <t>Step 8:</t>
+  </si>
+  <si>
+    <t>Step 9:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Optimize_Compare.zip</t>
+  </si>
+  <si>
+    <t>Download the zip file Below</t>
+  </si>
+  <si>
+    <t>Put it in your local directory and expand.</t>
+  </si>
+  <si>
+    <t>Close browser and open this file (Howto.xlsx) in your local directory</t>
+  </si>
+  <si>
+    <t>If required, complete Phase 2. Otherwise. Go to phase 3:</t>
+  </si>
+  <si>
+    <t>Phase 3:</t>
+  </si>
+  <si>
+    <t>Go to Phase 3</t>
   </si>
   <si>
     <r>
@@ -124,19 +128,74 @@
       </rPr>
       <t>Macro\Compare_Gen.xlsx</t>
     </r>
-  </si>
-  <si>
-    <t>If there is an old CCL_Share directory, rename or delete it.</t>
-  </si>
-  <si>
-    <t>Step 0:</t>
-  </si>
-  <si>
-    <t>This only has to be completed once.</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">Choose Extract-All.  Make sure directory name ends in "CCL_Share", not "CCL_Share </t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.  You may have to enable macros.</t>
+    </r>
+  </si>
+  <si>
+    <t>Results\ Lib_Compare_</t>
+  </si>
+  <si>
+    <t>User Filename</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>Cases</t>
+  </si>
+  <si>
+    <t>.xlsm</t>
+  </si>
+  <si>
+    <t>-&lt;0&gt;-</t>
+  </si>
+  <si>
+    <t>CO2 Type</t>
+  </si>
+  <si>
+    <t>CO2 Value</t>
+  </si>
+  <si>
+    <t>You (Hopefully) are looking at a screen like:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 3: </t>
+  </si>
+  <si>
+    <t>In general, green indicates stuff for you to do  Let's start by clicking the green below Analysis Type</t>
+  </si>
+  <si>
+    <t>Now, you can see an arrow down, for a pulldown.  If you click that arrow, you can see options for Analysis type</t>
+  </si>
+  <si>
+    <t>Analysis type "nominal" leaves everything as expected from my various sources.  Next in Case, choose Nominal again.</t>
+  </si>
+  <si>
+    <t>The one thing we want to vary in the nominal case is how a price on CO2 affects the results.  So, for every Ton of CO2 emitted, we add a cost that the supplier will have to pay.  We won't worry about details of how this works.</t>
+  </si>
+  <si>
+    <t>In CO2 Type, there are two options: Fixed and Increasing.  In fixed, we apply a fixed price in year 1, and the same price in every subsequent year.    With increasing, we increase the price every subsequent year.</t>
+  </si>
+  <si>
+    <t>Pick one CO2 Type,, then choose a value under "CO2 Value".</t>
+  </si>
+  <si>
+    <t>Now you are ready to Add this case to the ones you will compare.  You can see it near the bottom.</t>
+  </si>
+  <si>
+    <t>Now , choose another CO3 Value and add.</t>
+  </si>
+  <si>
+    <r>
+      <t>Click on "</t>
     </r>
     <r>
       <rPr>
@@ -147,7 +206,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(1)</t>
+      <t>Subfolders of this location are also trusted</t>
     </r>
     <r>
       <rPr>
@@ -157,71 +216,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"</t>
+      <t>" checkbox</t>
     </r>
   </si>
   <si>
-    <t>If required, complete Phase 2</t>
-  </si>
-  <si>
-    <t>Close browser and open this file (Howto.xlsx) in the target directory</t>
-  </si>
-  <si>
-    <t>File -&gt; More -&gt; Options -&gt; Trust Center (Left-bottom) -&gt; Trust Center Setting button (Right)</t>
-  </si>
-  <si>
-    <t>Trusted Locations (Left) -&gt; Add New Location… Button (Right)</t>
-  </si>
-  <si>
-    <t>Click on "Subfolders of this location are also trusted" checkbox</t>
-  </si>
-  <si>
-    <t>Step 8:</t>
-  </si>
-  <si>
-    <t>Step 9:</t>
-  </si>
-  <si>
-    <t>Wait until you have downloaded the entire directory CCL_Shared as a Compressed (Zipped) file</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Important: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Print a copy of this, but leave this window open.  Use the "File" menu at the left to print.</t>
-    </r>
-  </si>
-  <si>
-    <t>Close the browser.  Copy zip file from your download directory to your desired Target directory.</t>
-  </si>
-  <si>
-    <t>When you Click on C4, a new Browser Tab will appear.  Click on the Tab, and then click on Download (Upper Left).  Click C4 now.</t>
+    <t>Browse Button -&gt; Browse up to Share folder -&gt; OK</t>
+  </si>
+  <si>
+    <t>Step 10:</t>
+  </si>
+  <si>
+    <t>Step 11&gt;</t>
+  </si>
+  <si>
+    <t>Click Run, and watch the fun begin!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,8 +263,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +282,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -360,6 +392,43 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -377,6 +446,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15737</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>84365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2797628</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>168462</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7DF509F-D830-68D5-52DF-7C0F65831BB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1278480" y="5116286"/>
+          <a:ext cx="2781891" cy="1009383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -697,251 +815,636 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5B33D7-FCCA-4080-A2B8-E9ECEEDA5CF3}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.85"/>
   <cols>
-    <col min="2" max="2" width="8.921875" style="4"/>
+    <col min="1" max="1" width="7.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.73046875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.765625" customWidth="1"/>
-    <col min="12" max="12" width="8.765625" customWidth="1"/>
+    <col min="4" max="4" width="5.07421875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.07421875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.9609375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="34.299999999999997" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="B2" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.85">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="B3" s="12"/>
+      <c r="C3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="38.15" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="B3" s="11" t="s">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="B5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.85">
-      <c r="B4" s="12"/>
-      <c r="C4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="29.15" x14ac:dyDescent="0.85">
-      <c r="B5" s="7" t="s">
+      <c r="C9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="29.15" x14ac:dyDescent="0.85">
+      <c r="B10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="29.15" x14ac:dyDescent="0.85">
-      <c r="B6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.85">
-      <c r="B7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="29.15" x14ac:dyDescent="0.85">
-      <c r="B8" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="29.15" x14ac:dyDescent="0.85">
-      <c r="B9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.85">
-      <c r="B10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.85">
       <c r="B11" s="7" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.85">
       <c r="B12" s="7" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.85">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.85">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="10" t="s">
-        <v>19</v>
+      <c r="B14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.85">
       <c r="B15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.85">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="29.15" x14ac:dyDescent="0.85">
+      <c r="B18" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.85">
+      <c r="B19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.3" x14ac:dyDescent="0.95">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" ht="43.75" x14ac:dyDescent="0.85">
+      <c r="B22" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.85">
+      <c r="B23" s="19"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.85">
+      <c r="B24" s="19"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.85">
+      <c r="B25" s="19"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.85">
+      <c r="B26" s="19"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.85">
+      <c r="B27" s="19"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.85">
+      <c r="B28" s="19"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.85">
+      <c r="B29" s="19"/>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.85">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="29.15" x14ac:dyDescent="0.85">
-      <c r="B16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.85">
-      <c r="B17" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.85">
-      <c r="B18" s="7" t="s">
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="29.15" x14ac:dyDescent="0.85">
+      <c r="B31" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="1:7" ht="29.15" x14ac:dyDescent="0.85">
+      <c r="B32" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.85">
-      <c r="B19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.85">
-      <c r="B20" s="7" t="s">
+      <c r="C32" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="29.15" x14ac:dyDescent="0.85">
+      <c r="B33" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="58.3" x14ac:dyDescent="0.85">
+      <c r="B34" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.85">
-      <c r="B21" s="7" t="s">
+      <c r="C34" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="43.75" x14ac:dyDescent="0.85">
+      <c r="B35" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C35" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.85">
+      <c r="B36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="29.15" x14ac:dyDescent="0.85">
+      <c r="B37" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.85">
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
+      <c r="C37" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.85">
+      <c r="B38" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.85">
+      <c r="B39" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.85">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.85">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.85">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.85">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.85">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.85">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.85">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.85">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.85">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.85">
+      <c r="C135" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D31:G31"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="https://1drv.ms/f/s!ApcqMlOg59B8g78LLkCsqNJ86gfqsg?e=3iOC3l" xr:uid="{62C7ABCC-C39F-4E18-8D68-837DCDB60954}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{62C7ABCC-C39F-4E18-8D68-837DCDB60954}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -958,10 +1461,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
